--- a/analysis/mails_01/P04_8/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_8/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -117,6 +117,9 @@
     <t xml:space="preserve">Poales, grass</t>
   </si>
   <si>
+    <t xml:space="preserve">Grass for crop</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12403</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
     <t xml:space="preserve">Fabids</t>
   </si>
   <si>
+    <t xml:space="preserve">Fabales</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12404</t>
   </si>
   <si>
@@ -147,6 +153,9 @@
     <t xml:space="preserve">Poales, Cereal</t>
   </si>
   <si>
+    <t xml:space="preserve">Wheat</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12405</t>
   </si>
   <si>
@@ -171,6 +180,9 @@
     <t xml:space="preserve">Superasterids</t>
   </si>
   <si>
+    <t xml:space="preserve">Caryophyllales, Beetroot </t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12407</t>
   </si>
   <si>
@@ -195,6 +207,9 @@
     <t xml:space="preserve">Fallow</t>
   </si>
   <si>
+    <t xml:space="preserve">Uncultivated</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12409</t>
   </si>
   <si>
@@ -1165,6 +1180,9 @@
   </si>
   <si>
     <t xml:space="preserve">6140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barley</t>
   </si>
   <si>
     <t xml:space="preserve">MFD12519</t>
@@ -1752,14 +1770,16 @@
       <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1768,16 +1788,16 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
@@ -1790,16 +1810,18 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1808,16 +1830,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
@@ -1830,16 +1852,18 @@
         <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
       <c r="N5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1848,16 +1872,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
@@ -1870,16 +1894,18 @@
         <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1888,16 +1914,16 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
@@ -1910,16 +1936,18 @@
         <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1928,16 +1956,16 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
@@ -1950,16 +1978,18 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1968,16 +1998,16 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
@@ -1990,16 +2020,18 @@
         <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>64</v>
+      </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2008,16 +2040,16 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
@@ -2030,16 +2062,18 @@
         <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2048,16 +2082,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
@@ -2070,16 +2104,18 @@
         <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
       <c r="N11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -2088,16 +2124,16 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
@@ -2117,7 +2153,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -2126,10 +2162,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -2150,14 +2186,16 @@
       <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
       <c r="N13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2166,16 +2204,16 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
@@ -2188,16 +2226,18 @@
         <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M14" t="s">
+        <v>64</v>
+      </c>
       <c r="N14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -2206,16 +2246,16 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
@@ -2228,16 +2268,18 @@
         <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
       <c r="N15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -2246,10 +2288,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -2270,14 +2312,16 @@
       <c r="L16" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
       <c r="N16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -2286,16 +2330,16 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
@@ -2308,16 +2352,18 @@
         <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M17" t="s">
+        <v>64</v>
+      </c>
       <c r="N17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -2326,10 +2372,10 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -2350,14 +2396,16 @@
       <c r="L18" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
       <c r="N18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -2366,16 +2414,16 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
@@ -2388,16 +2436,18 @@
         <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>46</v>
+      </c>
       <c r="N19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -2406,16 +2456,16 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
@@ -2428,16 +2478,18 @@
         <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
       <c r="N20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2446,16 +2498,16 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
@@ -2468,16 +2520,18 @@
         <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
       <c r="N21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -2486,16 +2540,16 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
@@ -2508,16 +2562,18 @@
         <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
       <c r="N22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -2526,16 +2582,16 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
@@ -2555,7 +2611,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -2564,10 +2620,10 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -2588,14 +2644,16 @@
       <c r="L24" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
       <c r="N24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -2604,16 +2662,16 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
@@ -2626,16 +2684,18 @@
         <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
       <c r="N25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -2644,10 +2704,10 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -2668,14 +2728,16 @@
       <c r="L26" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
       <c r="N26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -2684,16 +2746,16 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
@@ -2706,16 +2768,18 @@
         <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M27" t="s">
+        <v>64</v>
+      </c>
       <c r="N27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -2724,16 +2788,16 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
@@ -2746,16 +2810,18 @@
         <v>32</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M28" t="s">
+        <v>64</v>
+      </c>
       <c r="N28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -2764,16 +2830,16 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
@@ -2786,16 +2852,18 @@
         <v>32</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
       <c r="N29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -2804,16 +2872,16 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
@@ -2826,16 +2894,18 @@
         <v>32</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
       <c r="N30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -2844,16 +2914,16 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
@@ -2866,16 +2936,18 @@
         <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
       <c r="N31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
@@ -2884,16 +2956,16 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
         <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
@@ -2906,16 +2978,18 @@
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M32" t="s">
+        <v>64</v>
+      </c>
       <c r="N32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -2924,16 +2998,16 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
@@ -2953,7 +3027,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
@@ -2962,16 +3036,16 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
         <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
@@ -2984,16 +3058,18 @@
         <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M34" t="s">
+        <v>46</v>
+      </c>
       <c r="N34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
         <v>15</v>
@@ -3002,10 +3078,10 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
@@ -3026,14 +3102,16 @@
       <c r="L35" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
       <c r="N35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -3042,16 +3120,16 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
@@ -3064,16 +3142,18 @@
         <v>32</v>
       </c>
       <c r="L36" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M36" t="s">
+        <v>64</v>
+      </c>
       <c r="N36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -3082,16 +3162,16 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
@@ -3104,16 +3184,18 @@
         <v>32</v>
       </c>
       <c r="L37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M37" t="s">
+        <v>46</v>
+      </c>
       <c r="N37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -3122,16 +3204,16 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
@@ -3144,16 +3226,18 @@
         <v>32</v>
       </c>
       <c r="L38" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M38" t="s">
+        <v>46</v>
+      </c>
       <c r="N38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -3162,16 +3246,16 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -3184,16 +3268,18 @@
         <v>32</v>
       </c>
       <c r="L39" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
       <c r="N39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -3202,16 +3288,16 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
@@ -3224,16 +3310,18 @@
         <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M40" t="s">
+        <v>64</v>
+      </c>
       <c r="N40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -3242,16 +3330,16 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
@@ -3264,16 +3352,18 @@
         <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>38</v>
-      </c>
-      <c r="M41" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
       <c r="N41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -3282,10 +3372,10 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F42" t="s">
         <v>19</v>
@@ -3306,14 +3396,16 @@
       <c r="L42" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="3"/>
+      <c r="M42" t="s">
+        <v>34</v>
+      </c>
       <c r="N42" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -3322,16 +3414,16 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
@@ -3344,16 +3436,18 @@
         <v>32</v>
       </c>
       <c r="L43" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M43" t="s">
+        <v>64</v>
+      </c>
       <c r="N43" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -3362,16 +3456,16 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
@@ -3391,7 +3485,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3400,16 +3494,16 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
@@ -3422,16 +3516,18 @@
         <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>43</v>
-      </c>
-      <c r="M45" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M45" t="s">
+        <v>46</v>
+      </c>
       <c r="N45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -3440,16 +3536,16 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F46" t="s">
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -3462,16 +3558,18 @@
         <v>32</v>
       </c>
       <c r="L46" t="s">
-        <v>43</v>
-      </c>
-      <c r="M46" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M46" t="s">
+        <v>46</v>
+      </c>
       <c r="N46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -3480,16 +3578,16 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
@@ -3502,16 +3600,18 @@
         <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>43</v>
-      </c>
-      <c r="M47" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M47" t="s">
+        <v>46</v>
+      </c>
       <c r="N47" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -3520,16 +3620,16 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
@@ -3542,16 +3642,18 @@
         <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>38</v>
-      </c>
-      <c r="M48" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
       <c r="N48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -3560,10 +3662,10 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -3584,14 +3686,16 @@
       <c r="L49" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" t="s">
+        <v>34</v>
+      </c>
       <c r="N49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -3600,16 +3704,16 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F50" t="s">
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
@@ -3622,16 +3726,18 @@
         <v>32</v>
       </c>
       <c r="L50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M50" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="M50" t="s">
+        <v>40</v>
+      </c>
       <c r="N50" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -3640,10 +3746,10 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
         <v>19</v>
@@ -3664,14 +3770,16 @@
       <c r="L51" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" t="s">
+        <v>34</v>
+      </c>
       <c r="N51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -3680,16 +3788,16 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
@@ -3702,16 +3810,18 @@
         <v>32</v>
       </c>
       <c r="L52" t="s">
-        <v>51</v>
-      </c>
-      <c r="M52" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M52" t="s">
+        <v>55</v>
+      </c>
       <c r="N52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -3720,16 +3830,16 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
@@ -3742,16 +3852,18 @@
         <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>59</v>
-      </c>
-      <c r="M53" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M53" t="s">
+        <v>64</v>
+      </c>
       <c r="N53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -3760,16 +3872,16 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
@@ -3782,16 +3894,18 @@
         <v>32</v>
       </c>
       <c r="L54" t="s">
-        <v>51</v>
-      </c>
-      <c r="M54" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M54" t="s">
+        <v>55</v>
+      </c>
       <c r="N54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -3800,16 +3914,16 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
@@ -3829,7 +3943,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
@@ -3838,16 +3952,16 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
@@ -3860,16 +3974,18 @@
         <v>32</v>
       </c>
       <c r="L56" t="s">
-        <v>59</v>
-      </c>
-      <c r="M56" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M56" t="s">
+        <v>64</v>
+      </c>
       <c r="N56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
         <v>15</v>
@@ -3878,16 +3994,16 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" t="s">
@@ -3900,10 +4016,10 @@
         <v>32</v>
       </c>
       <c r="L57" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M57" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N57" t="s">
         <v>26</v>
@@ -3911,7 +4027,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
@@ -3920,16 +4036,16 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" t="s">
@@ -3942,16 +4058,18 @@
         <v>32</v>
       </c>
       <c r="L58" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M58" t="s">
+        <v>46</v>
+      </c>
       <c r="N58" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
@@ -3960,16 +4078,16 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F59" t="s">
         <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" t="s">
@@ -3982,16 +4100,18 @@
         <v>32</v>
       </c>
       <c r="L59" t="s">
-        <v>51</v>
-      </c>
-      <c r="M59" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M59" t="s">
+        <v>55</v>
+      </c>
       <c r="N59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
@@ -4000,16 +4120,16 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
         <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" t="s">
@@ -4022,16 +4142,18 @@
         <v>32</v>
       </c>
       <c r="L60" t="s">
-        <v>59</v>
-      </c>
-      <c r="M60" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M60" t="s">
+        <v>64</v>
+      </c>
       <c r="N60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -4040,16 +4162,16 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" t="s">
@@ -4062,16 +4184,18 @@
         <v>32</v>
       </c>
       <c r="L61" t="s">
-        <v>43</v>
-      </c>
-      <c r="M61" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M61" t="s">
+        <v>46</v>
+      </c>
       <c r="N61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
@@ -4080,16 +4204,16 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F62" t="s">
         <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" t="s">
@@ -4102,16 +4226,18 @@
         <v>32</v>
       </c>
       <c r="L62" t="s">
-        <v>59</v>
-      </c>
-      <c r="M62" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M62" t="s">
+        <v>64</v>
+      </c>
       <c r="N62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
@@ -4120,16 +4246,16 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E63" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" t="s">
@@ -4142,16 +4268,18 @@
         <v>32</v>
       </c>
       <c r="L63" t="s">
-        <v>51</v>
-      </c>
-      <c r="M63" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M63" t="s">
+        <v>55</v>
+      </c>
       <c r="N63" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
@@ -4160,16 +4288,16 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
         <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
@@ -4182,16 +4310,18 @@
         <v>32</v>
       </c>
       <c r="L64" t="s">
-        <v>51</v>
-      </c>
-      <c r="M64" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M64" t="s">
+        <v>55</v>
+      </c>
       <c r="N64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -4200,16 +4330,16 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E65" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
@@ -4229,7 +4359,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -4238,16 +4368,16 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E66" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" t="s">
@@ -4260,16 +4390,18 @@
         <v>32</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
-      </c>
-      <c r="M66" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M66" t="s">
+        <v>46</v>
+      </c>
       <c r="N66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -4278,16 +4410,16 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" t="s">
@@ -4300,16 +4432,18 @@
         <v>32</v>
       </c>
       <c r="L67" t="s">
-        <v>59</v>
-      </c>
-      <c r="M67" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M67" t="s">
+        <v>64</v>
+      </c>
       <c r="N67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -4318,16 +4452,16 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E68" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" t="s">
@@ -4340,16 +4474,18 @@
         <v>32</v>
       </c>
       <c r="L68" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M68" t="s">
+        <v>46</v>
+      </c>
       <c r="N68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -4358,16 +4494,16 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F69" t="s">
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" t="s">
@@ -4380,16 +4516,18 @@
         <v>32</v>
       </c>
       <c r="L69" t="s">
-        <v>51</v>
-      </c>
-      <c r="M69" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M69" t="s">
+        <v>55</v>
+      </c>
       <c r="N69" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B70" t="s">
         <v>15</v>
@@ -4398,10 +4536,10 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F70" t="s">
         <v>19</v>
@@ -4422,14 +4560,16 @@
       <c r="L70" t="s">
         <v>33</v>
       </c>
-      <c r="M70" s="3"/>
+      <c r="M70" t="s">
+        <v>34</v>
+      </c>
       <c r="N70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -4438,10 +4578,10 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F71" t="s">
         <v>19</v>
@@ -4462,14 +4602,16 @@
       <c r="L71" t="s">
         <v>33</v>
       </c>
-      <c r="M71" s="3"/>
+      <c r="M71" t="s">
+        <v>34</v>
+      </c>
       <c r="N71" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -4478,16 +4620,16 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E72" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" t="s">
@@ -4500,16 +4642,18 @@
         <v>32</v>
       </c>
       <c r="L72" t="s">
-        <v>59</v>
-      </c>
-      <c r="M72" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M72" t="s">
+        <v>64</v>
+      </c>
       <c r="N72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -4518,16 +4662,16 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E73" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" t="s">
@@ -4540,16 +4684,18 @@
         <v>32</v>
       </c>
       <c r="L73" t="s">
-        <v>59</v>
-      </c>
-      <c r="M73" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M73" t="s">
+        <v>64</v>
+      </c>
       <c r="N73" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
@@ -4558,16 +4704,16 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E74" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" t="s">
@@ -4580,16 +4726,18 @@
         <v>32</v>
       </c>
       <c r="L74" t="s">
-        <v>59</v>
-      </c>
-      <c r="M74" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M74" t="s">
+        <v>64</v>
+      </c>
       <c r="N74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
@@ -4598,16 +4746,16 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E75" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" t="s">
@@ -4620,16 +4768,18 @@
         <v>32</v>
       </c>
       <c r="L75" t="s">
-        <v>59</v>
-      </c>
-      <c r="M75" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M75" t="s">
+        <v>64</v>
+      </c>
       <c r="N75" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
@@ -4638,16 +4788,16 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E76" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" t="s">
@@ -4660,16 +4810,18 @@
         <v>32</v>
       </c>
       <c r="L76" t="s">
-        <v>59</v>
-      </c>
-      <c r="M76" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M76" t="s">
+        <v>64</v>
+      </c>
       <c r="N76" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s">
         <v>15</v>
@@ -4678,16 +4830,16 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" t="s">
@@ -4700,16 +4852,18 @@
         <v>32</v>
       </c>
       <c r="L77" t="s">
-        <v>43</v>
-      </c>
-      <c r="M77" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M77" t="s">
+        <v>46</v>
+      </c>
       <c r="N77" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
@@ -4718,16 +4872,16 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E78" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
@@ -4747,7 +4901,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
@@ -4756,16 +4910,16 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" t="s">
@@ -4778,16 +4932,18 @@
         <v>32</v>
       </c>
       <c r="L79" t="s">
-        <v>43</v>
-      </c>
-      <c r="M79" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M79" t="s">
+        <v>46</v>
+      </c>
       <c r="N79" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -4796,16 +4952,16 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" t="s">
@@ -4818,16 +4974,18 @@
         <v>32</v>
       </c>
       <c r="L80" t="s">
-        <v>51</v>
-      </c>
-      <c r="M80" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M80" t="s">
+        <v>55</v>
+      </c>
       <c r="N80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -4836,10 +4994,10 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -4860,14 +5018,16 @@
       <c r="L81" t="s">
         <v>33</v>
       </c>
-      <c r="M81" s="3"/>
+      <c r="M81" t="s">
+        <v>34</v>
+      </c>
       <c r="N81" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
@@ -4876,16 +5036,16 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E82" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" t="s">
@@ -4905,7 +5065,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B83" t="s">
         <v>15</v>
@@ -4914,16 +5074,16 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E83" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" t="s">
@@ -4943,7 +5103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -4952,16 +5112,16 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E84" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" t="s">
@@ -4974,16 +5134,18 @@
         <v>32</v>
       </c>
       <c r="L84" t="s">
-        <v>43</v>
-      </c>
-      <c r="M84" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M84" t="s">
+        <v>46</v>
+      </c>
       <c r="N84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s">
         <v>15</v>
@@ -4992,16 +5154,16 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" t="s">
@@ -5014,16 +5176,18 @@
         <v>32</v>
       </c>
       <c r="L85" t="s">
-        <v>51</v>
-      </c>
-      <c r="M85" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M85" t="s">
+        <v>55</v>
+      </c>
       <c r="N85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
@@ -5032,16 +5196,16 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E86" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" t="s">
@@ -5054,16 +5218,18 @@
         <v>32</v>
       </c>
       <c r="L86" t="s">
-        <v>43</v>
-      </c>
-      <c r="M86" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M86" t="s">
+        <v>46</v>
+      </c>
       <c r="N86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
@@ -5072,16 +5238,16 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" t="s">
@@ -5094,16 +5260,18 @@
         <v>32</v>
       </c>
       <c r="L87" t="s">
-        <v>51</v>
-      </c>
-      <c r="M87" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M87" t="s">
+        <v>55</v>
+      </c>
       <c r="N87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B88" t="s">
         <v>15</v>
@@ -5112,16 +5280,16 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" t="s">
@@ -5134,16 +5302,18 @@
         <v>32</v>
       </c>
       <c r="L88" t="s">
-        <v>43</v>
-      </c>
-      <c r="M88" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M88" t="s">
+        <v>46</v>
+      </c>
       <c r="N88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s">
         <v>15</v>
@@ -5152,16 +5322,16 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E89" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" t="s">
@@ -5174,16 +5344,18 @@
         <v>32</v>
       </c>
       <c r="L89" t="s">
-        <v>51</v>
-      </c>
-      <c r="M89" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M89" t="s">
+        <v>55</v>
+      </c>
       <c r="N89" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
@@ -5192,16 +5364,16 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" t="s">
@@ -5214,16 +5386,18 @@
         <v>32</v>
       </c>
       <c r="L90" t="s">
-        <v>43</v>
-      </c>
-      <c r="M90" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M90" t="s">
+        <v>46</v>
+      </c>
       <c r="N90" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
@@ -5232,10 +5406,10 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E91" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -5256,14 +5430,16 @@
       <c r="L91" t="s">
         <v>33</v>
       </c>
-      <c r="M91" s="3"/>
+      <c r="M91" t="s">
+        <v>34</v>
+      </c>
       <c r="N91" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -5272,16 +5448,16 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E92" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" t="s">
@@ -5294,16 +5470,18 @@
         <v>32</v>
       </c>
       <c r="L92" t="s">
-        <v>51</v>
-      </c>
-      <c r="M92" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M92" t="s">
+        <v>55</v>
+      </c>
       <c r="N92" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
@@ -5312,16 +5490,16 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" t="s">
@@ -5334,16 +5512,18 @@
         <v>32</v>
       </c>
       <c r="L93" t="s">
-        <v>43</v>
-      </c>
-      <c r="M93" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M93" t="s">
+        <v>46</v>
+      </c>
       <c r="N93" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -5352,16 +5532,16 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E94" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" t="s">
@@ -5374,16 +5554,18 @@
         <v>32</v>
       </c>
       <c r="L94" t="s">
-        <v>43</v>
-      </c>
-      <c r="M94" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M94" t="s">
+        <v>46</v>
+      </c>
       <c r="N94" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -5392,16 +5574,16 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" t="s">
@@ -5414,16 +5596,18 @@
         <v>32</v>
       </c>
       <c r="L95" t="s">
-        <v>43</v>
-      </c>
-      <c r="M95" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M95" t="s">
+        <v>46</v>
+      </c>
       <c r="N95" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s">
         <v>15</v>
@@ -5432,16 +5616,16 @@
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" t="s">
@@ -5454,16 +5638,18 @@
         <v>32</v>
       </c>
       <c r="L96" t="s">
-        <v>43</v>
-      </c>
-      <c r="M96" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M96" t="s">
+        <v>46</v>
+      </c>
       <c r="N96" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s">
         <v>15</v>
@@ -5472,16 +5658,16 @@
         <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E97" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" t="s">
@@ -5494,16 +5680,18 @@
         <v>32</v>
       </c>
       <c r="L97" t="s">
-        <v>59</v>
-      </c>
-      <c r="M97" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M97" t="s">
+        <v>64</v>
+      </c>
       <c r="N97" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s">
         <v>15</v>
@@ -5512,16 +5700,16 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E98" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F98" t="s">
         <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" t="s">
@@ -5541,7 +5729,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
@@ -5550,16 +5738,16 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E99" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" t="s">
@@ -5572,16 +5760,18 @@
         <v>32</v>
       </c>
       <c r="L99" t="s">
-        <v>59</v>
-      </c>
-      <c r="M99" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M99" t="s">
+        <v>64</v>
+      </c>
       <c r="N99" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -5590,16 +5780,16 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E100" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F100" t="s">
         <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" t="s">
@@ -5612,16 +5802,18 @@
         <v>32</v>
       </c>
       <c r="L100" t="s">
-        <v>43</v>
-      </c>
-      <c r="M100" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M100" t="s">
+        <v>46</v>
+      </c>
       <c r="N100" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s">
         <v>15</v>
@@ -5630,16 +5822,16 @@
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E101" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" t="s">
@@ -5652,16 +5844,18 @@
         <v>32</v>
       </c>
       <c r="L101" t="s">
-        <v>43</v>
-      </c>
-      <c r="M101" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M101" t="s">
+        <v>46</v>
+      </c>
       <c r="N101" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
@@ -5670,16 +5864,16 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="E102" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
       </c>
       <c r="G102" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" t="s">
@@ -5692,16 +5886,18 @@
         <v>32</v>
       </c>
       <c r="L102" t="s">
-        <v>51</v>
-      </c>
-      <c r="M102" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M102" t="s">
+        <v>55</v>
+      </c>
       <c r="N102" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
@@ -5710,16 +5906,16 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E103" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" t="s">
@@ -5739,7 +5935,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
@@ -5748,16 +5944,16 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E104" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" t="s">
@@ -5770,16 +5966,18 @@
         <v>32</v>
       </c>
       <c r="L104" t="s">
-        <v>59</v>
-      </c>
-      <c r="M104" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="M104" t="s">
+        <v>64</v>
+      </c>
       <c r="N104" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -5788,16 +5986,16 @@
         <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E105" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" t="s">
@@ -5810,16 +6008,18 @@
         <v>32</v>
       </c>
       <c r="L105" t="s">
-        <v>43</v>
-      </c>
-      <c r="M105" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M105" t="s">
+        <v>46</v>
+      </c>
       <c r="N105" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B106" t="s">
         <v>15</v>
@@ -5828,16 +6028,16 @@
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E106" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" t="s">
@@ -5850,16 +6050,18 @@
         <v>32</v>
       </c>
       <c r="L106" t="s">
-        <v>51</v>
-      </c>
-      <c r="M106" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M106" t="s">
+        <v>55</v>
+      </c>
       <c r="N106" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B107" t="s">
         <v>15</v>
@@ -5868,10 +6070,10 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E107" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
@@ -5892,14 +6094,16 @@
       <c r="L107" t="s">
         <v>33</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" t="s">
+        <v>34</v>
+      </c>
       <c r="N107" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -5908,16 +6112,16 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E108" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" t="s">
@@ -5930,16 +6134,18 @@
         <v>32</v>
       </c>
       <c r="L108" t="s">
-        <v>51</v>
-      </c>
-      <c r="M108" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M108" t="s">
+        <v>55</v>
+      </c>
       <c r="N108" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B109" t="s">
         <v>15</v>
@@ -5948,16 +6154,16 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E109" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" t="s">
@@ -5977,7 +6183,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B110" t="s">
         <v>15</v>
@@ -5986,16 +6192,16 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E110" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" t="s">
@@ -6008,16 +6214,18 @@
         <v>32</v>
       </c>
       <c r="L110" t="s">
-        <v>43</v>
-      </c>
-      <c r="M110" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M110" t="s">
+        <v>46</v>
+      </c>
       <c r="N110" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -6026,16 +6234,16 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E111" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" t="s">
@@ -6055,7 +6263,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B112" t="s">
         <v>15</v>
@@ -6064,16 +6272,16 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E112" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F112" t="s">
         <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" t="s">
@@ -6093,7 +6301,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B113" t="s">
         <v>15</v>
@@ -6102,16 +6310,16 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E113" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F113" t="s">
         <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" t="s">
@@ -6131,7 +6339,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
@@ -6140,10 +6348,10 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E114" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -6164,14 +6372,16 @@
       <c r="L114" t="s">
         <v>33</v>
       </c>
-      <c r="M114" s="3"/>
+      <c r="M114" t="s">
+        <v>34</v>
+      </c>
       <c r="N114" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
@@ -6180,16 +6390,16 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E115" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
       </c>
       <c r="G115" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" t="s">
@@ -6209,7 +6419,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
@@ -6218,16 +6428,16 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E116" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" t="s">
@@ -6240,16 +6450,18 @@
         <v>32</v>
       </c>
       <c r="L116" t="s">
-        <v>43</v>
-      </c>
-      <c r="M116" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M116" t="s">
+        <v>46</v>
+      </c>
       <c r="N116" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
@@ -6258,16 +6470,16 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E117" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F117" t="s">
         <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" t="s">
@@ -6280,16 +6492,18 @@
         <v>32</v>
       </c>
       <c r="L117" t="s">
-        <v>43</v>
-      </c>
-      <c r="M117" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M117" t="s">
+        <v>389</v>
+      </c>
       <c r="N117" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B118" t="s">
         <v>15</v>
@@ -6298,10 +6512,10 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E118" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -6322,14 +6536,16 @@
       <c r="L118" t="s">
         <v>33</v>
       </c>
-      <c r="M118" s="3"/>
+      <c r="M118" t="s">
+        <v>34</v>
+      </c>
       <c r="N118" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
@@ -6338,16 +6554,16 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E119" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F119" t="s">
         <v>19</v>
       </c>
       <c r="G119" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" t="s">
@@ -6360,16 +6576,18 @@
         <v>32</v>
       </c>
       <c r="L119" t="s">
-        <v>51</v>
-      </c>
-      <c r="M119" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M119" t="s">
+        <v>55</v>
+      </c>
       <c r="N119" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B120" t="s">
         <v>15</v>
@@ -6378,16 +6596,16 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E120" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" t="s">
@@ -6400,16 +6618,18 @@
         <v>32</v>
       </c>
       <c r="L120" t="s">
-        <v>43</v>
-      </c>
-      <c r="M120" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M120" t="s">
+        <v>46</v>
+      </c>
       <c r="N120" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -6418,16 +6638,16 @@
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E121" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" t="s">
@@ -6447,7 +6667,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B122" t="s">
         <v>15</v>
@@ -6456,16 +6676,16 @@
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E122" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F122" t="s">
         <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" t="s">
@@ -6478,16 +6698,18 @@
         <v>32</v>
       </c>
       <c r="L122" t="s">
-        <v>43</v>
-      </c>
-      <c r="M122" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M122" t="s">
+        <v>46</v>
+      </c>
       <c r="N122" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
@@ -6496,16 +6718,16 @@
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E123" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" t="s">
@@ -6518,16 +6740,18 @@
         <v>32</v>
       </c>
       <c r="L123" t="s">
-        <v>43</v>
-      </c>
-      <c r="M123" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="M123" t="s">
+        <v>46</v>
+      </c>
       <c r="N123" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
@@ -6536,16 +6760,16 @@
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E124" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F124" t="s">
         <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" t="s">
@@ -6558,9 +6782,11 @@
         <v>32</v>
       </c>
       <c r="L124" t="s">
-        <v>51</v>
-      </c>
-      <c r="M124" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="M124" t="s">
+        <v>55</v>
+      </c>
       <c r="N124" t="s">
         <v>26</v>
       </c>
@@ -6581,10 +6807,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
@@ -6592,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3">
@@ -6600,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
@@ -6608,7 +6834,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5">
@@ -6616,7 +6842,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6">
@@ -6624,7 +6850,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7">
@@ -6632,7 +6858,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8">
@@ -6640,7 +6866,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9">
@@ -6648,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10">
@@ -6656,7 +6882,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11">
@@ -6664,7 +6890,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12">
@@ -6672,7 +6898,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13">
@@ -6680,7 +6906,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14">
@@ -6688,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15">
@@ -6696,7 +6922,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
